--- a/综艺.xlsx
+++ b/综艺.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\5.5.5.5\data\src\github\dbdb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
   </bookViews>
   <sheets>
-    <sheet name="dbdb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dbdb" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>title</t>
   </si>
@@ -46,35 +51,99 @@
     <t>ratings_count</t>
   </si>
   <si>
-    <t>嵐の宿題くん</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/11584389/</t>
-  </si>
-  <si>
-    <t>https://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2157158991.jpg</t>
+    <t>collect_count</t>
+  </si>
+  <si>
+    <t>comments_count</t>
+  </si>
+  <si>
+    <t>do_count</t>
+  </si>
+  <si>
+    <t>wish_count</t>
+  </si>
+  <si>
+    <t>reviews_count</t>
+  </si>
+  <si>
+    <t>episodes_count</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>aka</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>casts</t>
+  </si>
+  <si>
+    <t>current_season</t>
+  </si>
+  <si>
+    <t>directors</t>
+  </si>
+  <si>
+    <t>douban_site</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>mobile_url</t>
+  </si>
+  <si>
+    <t>original_title</t>
+  </si>
+  <si>
+    <t>schedule_url</t>
+  </si>
+  <si>
+    <t>seasons_count</t>
+  </si>
+  <si>
+    <t>share_url</t>
+  </si>
+  <si>
+    <t>subtype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,26 +158,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,20 +482,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI426"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,66 +499,1378 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>428</v>
-      </c>
-      <c r="F2" t="n">
-        <v>571</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11584389</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2144</v>
-      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/综艺.xlsx
+++ b/综艺.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4951">
   <si>
     <t>title</t>
   </si>
@@ -16126,15 +16126,6 @@
     <t>https://movie.douban.com/subject/26613426/</t>
   </si>
   <si>
-    <t>26613426</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
     <t>《七巧板》于1984年在中央电视台播出，首任节目主持人为鞠萍。85年的央视六一节目就是《七巧板》栏目的特别版。本栏目分为日常版和周末版两部分，日常版是给予2—6岁的学龄前儿童的节目，周末版是关于0—6岁学龄前儿童的节目。</t>
   </si>
   <si>
@@ -16159,70 +16150,127 @@
     <t>https://movie.douban.com/subject/27029098/</t>
   </si>
   <si>
-    <t>27029098</t>
-  </si>
-  <si>
-    <t>6.5</t>
+    <t>《火星情报局》是一档轻情境科幻综艺脱口秀，用综艺手法，检验全民的新奇发现。节目主持人为汪涵，设定为《火星情报局》的局长，在他的统领下，火星特工定期提案，对人类行为模式进行研究。坚信保护地球就是保护火星，“火星特工”也深信，发现就是超能力。第三季里，将对前两季的内容做全新升级，将使节目的故事背景更加完整，人物设定更加丰满，提案的层次更加复杂，现场舞美更加恢弘。</t>
+  </si>
+  <si>
+    <t>https://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2479040953.jpg</t>
+  </si>
+  <si>
+    <t>['火星情报局3']</t>
+  </si>
+  <si>
+    <t>[{'alt': 'https://movie.douban.com/celebrity/1312937/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/24343.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/24343.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/24343.jpg'}, 'name': '汪涵', 'id': '1312937'}, {'alt': 'https://movie.douban.com/celebrity/1317294/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1465788087.82.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1465788087.82.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1465788087.82.jpg'}, 'name': '薛之谦', 'id': '1317294'}, {'alt': 'https://movie.douban.com/celebrity/1321186/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1364740899.33.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1364740899.33.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1364740899.33.jpg'}, 'name': '郭雪芙', 'id': '1321186'}, {'alt': 'https://movie.douban.com/celebrity/1315507/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1373426084.31.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1373426084.31.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1373426084.31.jpg'}, 'name': '钱枫', 'id': '1315507'}]</t>
+  </si>
+  <si>
+    <t>{'small': 'http://img7.doubanio.com/view/movie_poster_cover/ipst/public/p2479040953.jpg', 'large': 'http://img7.doubanio.com/view/movie_poster_cover/lpst/public/p2479040953.jpg', 'medium': 'http://img7.doubanio.com/view/movie_poster_cover/spst/public/p2479040953.jpg'}</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/27029098/mobile</t>
+  </si>
+  <si>
+    <t>http://m.douban.com/movie/subject/27029098</t>
+  </si>
+  <si>
+    <t>中国有嘻哈</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/27037043/</t>
+  </si>
+  <si>
+    <t>《中国有嘻哈》是爱奇艺首次拉通全站资源，倾全平台之力重点推出的中国首档 Hip-hop文化推广节目。这是一档锁定未来的超级网综。吴亦凡、张震岳&amp;热狗（MC Hotdog）、潘玮柏，四大明星制作人将携手打造中国下一代新青年文化，寻找属于中国年轻人的Hip-hop偶像。节目由爱奇艺高级副总裁陈伟挂帅总制片人，《蒙面歌王》系列总导演车澈，《奔跑吧兄弟》三季总编剧岑俊义，《跨界歌王》总导演宫鹏，《盖世英雄》音乐总监刘洲等金牌制作团队组成的“综艺梦之队”保驾护航。Rising ! Chinese Hip-hop</t>
+  </si>
+  <si>
+    <t>https://img1.doubanio.com/view/movie_poster_cover/lpst/public/p2462922627.jpg</t>
+  </si>
+  <si>
+    <t>['The rap of China']</t>
+  </si>
+  <si>
+    <t>[{'alt': 'https://movie.douban.com/celebrity/1337000/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1401722517.74.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1401722517.74.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1401722517.74.jpg'}, 'name': '吴亦凡', 'id': '1337000'}, {'alt': 'https://movie.douban.com/celebrity/1275413/', 'avatars': {'small': 'http://img3.doubanio.com/img/celebrity/small/23899.jpg', 'large': 'http://img3.doubanio.com/img/celebrity/large/23899.jpg', 'medium': 'http://img3.doubanio.com/img/celebrity/medium/23899.jpg'}, 'name': '张震岳', 'id': '1275413'}, {'alt': 'https://movie.douban.com/celebrity/1234797/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/53641.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/53641.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/53641.jpg'}, 'name': '姚中仁', 'id': '1234797'}, {'alt': 'https://movie.douban.com/celebrity/1275427/', 'avatars': {'small': 'http://img3.doubanio.com/img/celebrity/small/58409.jpg', 'large': 'http://img3.doubanio.com/img/celebrity/large/58409.jpg', 'medium': 'http://img3.doubanio.com/img/celebrity/medium/58409.jpg'}, 'name': '潘玮柏', 'id': '1275427'}]</t>
+  </si>
+  <si>
+    <t>[{'alt': 'https://movie.douban.com/celebrity/1376140/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1498545524.74.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1498545524.74.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1498545524.74.jpg'}, 'name': '车澈', 'id': '1376140'}]</t>
+  </si>
+  <si>
+    <t>{'small': 'http://img3.doubanio.com/view/movie_poster_cover/ipst/public/p2462922627.jpg', 'large': 'http://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2462922627.jpg', 'medium': 'http://img3.doubanio.com/view/movie_poster_cover/spst/public/p2462922627.jpg'}</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/27037043/mobile</t>
+  </si>
+  <si>
+    <t>http://m.douban.com/movie/subject/27037043</t>
+  </si>
+  <si>
+    <t>越策越开心</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/25950238/</t>
+  </si>
+  <si>
+    <t>25950238</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>《越策越开心》是湖南卫视一档时下最具人气的的娱乐脱口秀节目，由汪涵等共同担纲主持；整个节目分为前戏、越播越开心、歌舞秀、以及嘉宾四大单元，通过选取流行元素、坊间话题、邀请一些知名艺人、特殊身份的行业人士，以及一些普通老百姓，参与节目，通过影片桥段剪辑、方言笑话、短剧、访谈、音乐演绎等各种形式组合成一幕幕笑料频出的场景，将快乐和轻松传达给观众。 《越策越开心》是湖南卫视一档时下最具人气的的娱乐脱口秀节目，由汪涵等共同担纲主持；整个节目分为前戏、越播越开心、歌舞秀、以及嘉宾四大单元，通过选取流行元素、坊间话题、邀请一些知名艺人、特殊身份的行业人士，以及一些普通老百姓，参与节目，通过影片桥段剪辑、方言笑话、短剧、访谈、音乐演绎等各种形式组合成一幕幕笑料频出的场景，将快乐和轻松传达给观众。</t>
+  </si>
+  <si>
+    <t>https://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2243801124.jpg</t>
+  </si>
+  <si>
+    <t>[{'alt': 'https://movie.douban.com/celebrity/1312937/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/24343.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/24343.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/24343.jpg'}, 'name': '汪涵', 'id': '1312937'}, {'alt': None, 'avatars': None, 'name': '马可', 'id': None}]</t>
+  </si>
+  <si>
+    <t>[{'alt': None, 'avatars': None, 'name': '张士天', 'id': None}]</t>
+  </si>
+  <si>
+    <t>{'small': 'http://img7.doubanio.com/view/movie_poster_cover/ipst/public/p2243801124.jpg', 'large': 'http://img7.doubanio.com/view/movie_poster_cover/lpst/public/p2243801124.jpg', 'medium': 'http://img7.doubanio.com/view/movie_poster_cover/spst/public/p2243801124.jpg'}</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/25950238/mobile</t>
+  </si>
+  <si>
+    <t>http://m.douban.com/movie/subject/25950238</t>
+  </si>
+  <si>
+    <t>脑洞大开</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/26996612/</t>
+  </si>
+  <si>
+    <t>26996612</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>《火星情报局》是一档轻情境科幻综艺脱口秀，用综艺手法，检验全民的新奇发现。节目主持人为汪涵，设定为《火星情报局》的局长，在他的统领下，火星特工定期提案，对人类行为模式进行研究。坚信保护地球就是保护火星，“火星特工”也深信，发现就是超能力。第三季里，将对前两季的内容做全新升级，将使节目的故事背景更加完整，人物设定更加丰满，提案的层次更加复杂，现场舞美更加恢弘。</t>
-  </si>
-  <si>
-    <t>https://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2479040953.jpg</t>
-  </si>
-  <si>
-    <t>['火星情报局3']</t>
-  </si>
-  <si>
-    <t>[{'alt': 'https://movie.douban.com/celebrity/1312937/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/24343.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/24343.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/24343.jpg'}, 'name': '汪涵', 'id': '1312937'}, {'alt': 'https://movie.douban.com/celebrity/1317294/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1465788087.82.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1465788087.82.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1465788087.82.jpg'}, 'name': '薛之谦', 'id': '1317294'}, {'alt': 'https://movie.douban.com/celebrity/1321186/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1364740899.33.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1364740899.33.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1364740899.33.jpg'}, 'name': '郭雪芙', 'id': '1321186'}, {'alt': 'https://movie.douban.com/celebrity/1315507/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1373426084.31.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1373426084.31.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1373426084.31.jpg'}, 'name': '钱枫', 'id': '1315507'}]</t>
-  </si>
-  <si>
-    <t>{'small': 'http://img7.doubanio.com/view/movie_poster_cover/ipst/public/p2479040953.jpg', 'large': 'http://img7.doubanio.com/view/movie_poster_cover/lpst/public/p2479040953.jpg', 'medium': 'http://img7.doubanio.com/view/movie_poster_cover/spst/public/p2479040953.jpg'}</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/27029098/mobile</t>
-  </si>
-  <si>
-    <t>http://m.douban.com/movie/subject/27029098</t>
-  </si>
-  <si>
-    <t>中国有嘻哈</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/27037043/</t>
-  </si>
-  <si>
-    <t>27037043</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>《中国有嘻哈》是爱奇艺首次拉通全站资源，倾全平台之力重点推出的中国首档 Hip-hop文化推广节目。这是一档锁定未来的超级网综。吴亦凡、张震岳&amp;热狗（MC Hotdog）、潘玮柏，四大明星制作人将携手打造中国下一代新青年文化，寻找属于中国年轻人的Hip-hop偶像。节目由爱奇艺高级副总裁陈伟挂帅总制片人，《蒙面歌王》系列总导演车澈，《奔跑吧兄弟》三季总编剧岑俊义，《跨界歌王》总导演宫鹏，《盖世英雄》音乐总监刘洲等金牌制作团队组成的“综艺梦之队”保驾护航。Rising ! Chinese Hip-hop</t>
-  </si>
-  <si>
-    <t>https://img1.doubanio.com/view/movie_poster_cover/lpst/public/p2462922627.jpg</t>
-  </si>
-  <si>
-    <t>['The rap of China']</t>
-  </si>
-  <si>
-    <t>[{'alt': 'https://movie.douban.com/celebrity/1337000/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1401722517.74.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1401722517.74.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1401722517.74.jpg'}, 'name': '吴亦凡', 'id': '1337000'}, {'alt': 'https://movie.douban.com/celebrity/1275413/', 'avatars': {'small': 'http://img3.doubanio.com/img/celebrity/small/23899.jpg', 'large': 'http://img3.doubanio.com/img/celebrity/large/23899.jpg', 'medium': 'http://img3.doubanio.com/img/celebrity/medium/23899.jpg'}, 'name': '张震岳', 'id': '1275413'}, {'alt': 'https://movie.douban.com/celebrity/1234797/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/53641.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/53641.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/53641.jpg'}, 'name': '姚中仁', 'id': '1234797'}, {'alt': 'https://movie.douban.com/celebrity/1275427/', 'avatars': {'small': 'http://img3.doubanio.com/img/celebrity/small/58409.jpg', 'large': 'http://img3.doubanio.com/img/celebrity/large/58409.jpg', 'medium': 'http://img3.doubanio.com/img/celebrity/medium/58409.jpg'}, 'name': '潘玮柏', 'id': '1275427'}]</t>
-  </si>
-  <si>
-    <t>[{'alt': 'https://movie.douban.com/celebrity/1376140/', 'avatars': {'small': 'http://img7.doubanio.com/img/celebrity/small/1498545524.74.jpg', 'large': 'http://img7.doubanio.com/img/celebrity/large/1498545524.74.jpg', 'medium': 'http://img7.doubanio.com/img/celebrity/medium/1498545524.74.jpg'}, 'name': '车澈', 'id': '1376140'}]</t>
-  </si>
-  <si>
-    <t>{'small': 'http://img3.doubanio.com/view/movie_poster_cover/ipst/public/p2462922627.jpg', 'large': 'http://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2462922627.jpg', 'medium': 'http://img3.doubanio.com/view/movie_poster_cover/spst/public/p2462922627.jpg'}</t>
-  </si>
-  <si>
-    <t>https://movie.douban.com/subject/27037043/mobile</t>
-  </si>
-  <si>
-    <t>http://m.douban.com/movie/subject/27037043</t>
+    <t>《脑洞大开》是优酷与海南优制娱乐有限公司联合出品，全国首档以想象力竞赛为核心的全民急智问答脱口秀网综。节目颠覆以往脱口秀的既定模式，节目采用问答的形式，参加的选手需要针对一个问题，回答出天马行空，鬼马搞笑的一句话“神回复”，来体现自己脑洞有多大。参与选手需要有丰富的联想力和想象力，善于表达和演绎，反应快，思维活跃，奇特搞笑，要能从不同的角度回答出让人发笑或眼前一亮的答案，而也能激发广大网友的热情互动，让金句频发和广泛传播。</t>
+  </si>
+  <si>
+    <t>https://img1.doubanio.com/view/movie_poster_cover/lpst/public/p2452165837.jpg</t>
+  </si>
+  <si>
+    <t>['脑大洞开']</t>
+  </si>
+  <si>
+    <t>[{'alt': 'https://movie.douban.com/celebrity/1334707/', 'avatars': {'small': 'http://img3.doubanio.com/img/celebrity/small/1379915552.17.jpg', 'large': 'http://img3.doubanio.com/img/celebrity/large/1379915552.17.jpg', 'medium': 'http://img3.doubanio.com/img/celebrity/medium/1379915552.17.jpg'}, 'name': '张绍刚', 'id': '1334707'}]</t>
+  </si>
+  <si>
+    <t>{'small': 'http://img3.doubanio.com/view/movie_poster_cover/ipst/public/p2452165837.jpg', 'large': 'http://img3.doubanio.com/view/movie_poster_cover/lpst/public/p2452165837.jpg', 'medium': 'http://img3.doubanio.com/view/movie_poster_cover/spst/public/p2452165837.jpg'}</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/26996612/mobile</t>
+  </si>
+  <si>
+    <t>http://m.douban.com/movie/subject/26996612</t>
   </si>
 </sst>
 </file>
@@ -16571,7 +16619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI505"/>
+  <dimension ref="A1:AI507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66586,11 +66634,11 @@
       <c r="C503" t="s">
         <v>4901</v>
       </c>
-      <c r="D503" t="s">
-        <v>4902</v>
-      </c>
-      <c r="E503" t="s">
-        <v>4903</v>
+      <c r="D503" t="n">
+        <v>26613426</v>
+      </c>
+      <c r="E503" t="n">
+        <v>7.1</v>
       </c>
       <c r="F503" t="n">
         <v>303</v>
@@ -66611,8 +66659,8 @@
         <v>0</v>
       </c>
       <c r="L503" t="s"/>
-      <c r="M503" t="s">
-        <v>4904</v>
+      <c r="M503" t="n">
+        <v>1984</v>
       </c>
       <c r="N503" t="s">
         <v>159</v>
@@ -66624,10 +66672,10 @@
         <v>4084</v>
       </c>
       <c r="Q503" t="s">
-        <v>4905</v>
+        <v>4902</v>
       </c>
       <c r="R503" t="s">
-        <v>4906</v>
+        <v>4903</v>
       </c>
       <c r="S503" t="n">
         <v>400</v>
@@ -66648,7 +66696,7 @@
         <v>4901</v>
       </c>
       <c r="Y503" t="s">
-        <v>4907</v>
+        <v>4904</v>
       </c>
       <c r="Z503" t="s"/>
       <c r="AA503" t="s">
@@ -66656,10 +66704,10 @@
       </c>
       <c r="AB503" t="s"/>
       <c r="AC503" t="s">
-        <v>4908</v>
+        <v>4905</v>
       </c>
       <c r="AD503" t="s">
-        <v>4909</v>
+        <v>4906</v>
       </c>
       <c r="AE503" t="s">
         <v>4900</v>
@@ -66667,7 +66715,7 @@
       <c r="AF503" t="s"/>
       <c r="AG503" t="s"/>
       <c r="AH503" t="s">
-        <v>4910</v>
+        <v>4907</v>
       </c>
       <c r="AI503" t="s">
         <v>48</v>
@@ -66678,16 +66726,16 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>4911</v>
+        <v>4908</v>
       </c>
       <c r="C504" t="s">
-        <v>4912</v>
-      </c>
-      <c r="D504" t="s">
-        <v>4913</v>
-      </c>
-      <c r="E504" t="s">
-        <v>4914</v>
+        <v>4909</v>
+      </c>
+      <c r="D504" t="n">
+        <v>27029098</v>
+      </c>
+      <c r="E504" t="n">
+        <v>6.5</v>
       </c>
       <c r="F504" t="n">
         <v>420</v>
@@ -66708,8 +66756,8 @@
         <v>3</v>
       </c>
       <c r="L504" t="s"/>
-      <c r="M504" t="s">
-        <v>4915</v>
+      <c r="M504" t="n">
+        <v>2017</v>
       </c>
       <c r="N504" t="s">
         <v>159</v>
@@ -66721,10 +66769,10 @@
         <v>4607</v>
       </c>
       <c r="Q504" t="s">
-        <v>4916</v>
+        <v>4910</v>
       </c>
       <c r="R504" t="s">
-        <v>4917</v>
+        <v>4911</v>
       </c>
       <c r="S504" t="n">
         <v>2252</v>
@@ -66739,13 +66787,13 @@
         <v>0</v>
       </c>
       <c r="W504" t="s">
-        <v>4918</v>
+        <v>4912</v>
       </c>
       <c r="X504" t="s">
-        <v>4912</v>
+        <v>4909</v>
       </c>
       <c r="Y504" t="s">
-        <v>4919</v>
+        <v>4913</v>
       </c>
       <c r="Z504" t="s"/>
       <c r="AA504" t="s">
@@ -66753,18 +66801,18 @@
       </c>
       <c r="AB504" t="s"/>
       <c r="AC504" t="s">
-        <v>4920</v>
+        <v>4914</v>
       </c>
       <c r="AD504" t="s">
-        <v>4921</v>
+        <v>4915</v>
       </c>
       <c r="AE504" t="s">
-        <v>4911</v>
+        <v>4908</v>
       </c>
       <c r="AF504" t="s"/>
       <c r="AG504" t="s"/>
       <c r="AH504" t="s">
-        <v>4922</v>
+        <v>4916</v>
       </c>
       <c r="AI504" t="s">
         <v>48</v>
@@ -66775,16 +66823,16 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>4923</v>
+        <v>4917</v>
       </c>
       <c r="C505" t="s">
-        <v>4924</v>
-      </c>
-      <c r="D505" t="s">
-        <v>4925</v>
-      </c>
-      <c r="E505" t="s">
-        <v>4926</v>
+        <v>4918</v>
+      </c>
+      <c r="D505" t="n">
+        <v>27037043</v>
+      </c>
+      <c r="E505" t="n">
+        <v>6.4</v>
       </c>
       <c r="F505" t="n">
         <v>3636</v>
@@ -66807,8 +66855,8 @@
       <c r="L505" t="s">
         <v>279</v>
       </c>
-      <c r="M505" t="s">
-        <v>4915</v>
+      <c r="M505" t="n">
+        <v>2017</v>
       </c>
       <c r="N505" t="s">
         <v>159</v>
@@ -66820,10 +66868,10 @@
         <v>4717</v>
       </c>
       <c r="Q505" t="s">
-        <v>4927</v>
+        <v>4919</v>
       </c>
       <c r="R505" t="s">
-        <v>4928</v>
+        <v>4920</v>
       </c>
       <c r="S505" t="n">
         <v>804</v>
@@ -66838,36 +66886,234 @@
         <v>0</v>
       </c>
       <c r="W505" t="s">
-        <v>4929</v>
+        <v>4921</v>
       </c>
       <c r="X505" t="s">
-        <v>4924</v>
+        <v>4918</v>
       </c>
       <c r="Y505" t="s">
-        <v>4930</v>
-      </c>
-      <c r="Z505" t="s">
-        <v>1872</v>
+        <v>4922</v>
+      </c>
+      <c r="Z505" t="n">
+        <v>1</v>
       </c>
       <c r="AA505" t="s">
-        <v>4931</v>
+        <v>4923</v>
       </c>
       <c r="AB505" t="s"/>
       <c r="AC505" t="s">
-        <v>4932</v>
+        <v>4924</v>
       </c>
       <c r="AD505" t="s">
-        <v>4933</v>
+        <v>4925</v>
       </c>
       <c r="AE505" t="s">
-        <v>4923</v>
+        <v>4917</v>
       </c>
       <c r="AF505" t="s"/>
       <c r="AG505" t="s"/>
       <c r="AH505" t="s">
+        <v>4926</v>
+      </c>
+      <c r="AI505" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="506" spans="1:35">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>4927</v>
+      </c>
+      <c r="C506" t="s">
+        <v>4928</v>
+      </c>
+      <c r="D506" t="s">
+        <v>4929</v>
+      </c>
+      <c r="E506" t="s">
+        <v>4930</v>
+      </c>
+      <c r="F506" t="n">
+        <v>329</v>
+      </c>
+      <c r="G506" t="n">
+        <v>396</v>
+      </c>
+      <c r="H506" t="n">
+        <v>123</v>
+      </c>
+      <c r="I506" t="n">
+        <v>2</v>
+      </c>
+      <c r="J506" t="n">
+        <v>24</v>
+      </c>
+      <c r="K506" t="n">
+        <v>1</v>
+      </c>
+      <c r="L506" t="s"/>
+      <c r="M506" t="s">
+        <v>4931</v>
+      </c>
+      <c r="N506" t="s">
+        <v>159</v>
+      </c>
+      <c r="O506" t="s">
+        <v>108</v>
+      </c>
+      <c r="P506" t="s">
+        <v>2195</v>
+      </c>
+      <c r="Q506" t="s">
+        <v>4932</v>
+      </c>
+      <c r="R506" t="s">
+        <v>4933</v>
+      </c>
+      <c r="S506" t="n">
+        <v>440</v>
+      </c>
+      <c r="T506" t="n">
+        <v>660</v>
+      </c>
+      <c r="U506" t="b">
+        <v>1</v>
+      </c>
+      <c r="V506" t="b">
+        <v>1</v>
+      </c>
+      <c r="W506" t="s">
+        <v>44</v>
+      </c>
+      <c r="X506" t="s">
+        <v>4928</v>
+      </c>
+      <c r="Y506" t="s">
         <v>4934</v>
       </c>
-      <c r="AI505" t="s">
+      <c r="Z506" t="s"/>
+      <c r="AA506" t="s">
+        <v>4935</v>
+      </c>
+      <c r="AB506" t="s"/>
+      <c r="AC506" t="s">
+        <v>4936</v>
+      </c>
+      <c r="AD506" t="s">
+        <v>4937</v>
+      </c>
+      <c r="AE506" t="s">
+        <v>4927</v>
+      </c>
+      <c r="AF506" t="s"/>
+      <c r="AG506" t="s"/>
+      <c r="AH506" t="s">
+        <v>4938</v>
+      </c>
+      <c r="AI506" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="507" spans="1:35">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4939</v>
+      </c>
+      <c r="C507" t="s">
+        <v>4940</v>
+      </c>
+      <c r="D507" t="s">
+        <v>4941</v>
+      </c>
+      <c r="E507" t="s">
+        <v>4942</v>
+      </c>
+      <c r="F507" t="n">
+        <v>327</v>
+      </c>
+      <c r="G507" t="n">
+        <v>286</v>
+      </c>
+      <c r="H507" t="n">
+        <v>215</v>
+      </c>
+      <c r="I507" t="n">
+        <v>82</v>
+      </c>
+      <c r="J507" t="n">
+        <v>60</v>
+      </c>
+      <c r="K507" t="n">
+        <v>1</v>
+      </c>
+      <c r="L507" t="s">
+        <v>279</v>
+      </c>
+      <c r="M507" t="s">
+        <v>4943</v>
+      </c>
+      <c r="N507" t="s">
+        <v>159</v>
+      </c>
+      <c r="O507" t="s">
+        <v>160</v>
+      </c>
+      <c r="P507" t="s">
+        <v>4186</v>
+      </c>
+      <c r="Q507" t="s">
+        <v>4944</v>
+      </c>
+      <c r="R507" t="s">
+        <v>4945</v>
+      </c>
+      <c r="S507" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T507" t="n">
+        <v>4445</v>
+      </c>
+      <c r="U507" t="b">
+        <v>1</v>
+      </c>
+      <c r="V507" t="b">
+        <v>1</v>
+      </c>
+      <c r="W507" t="s">
+        <v>4946</v>
+      </c>
+      <c r="X507" t="s">
+        <v>4940</v>
+      </c>
+      <c r="Y507" t="s">
+        <v>4947</v>
+      </c>
+      <c r="Z507" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AA507" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB507" t="s"/>
+      <c r="AC507" t="s">
+        <v>4948</v>
+      </c>
+      <c r="AD507" t="s">
+        <v>4949</v>
+      </c>
+      <c r="AE507" t="s">
+        <v>4939</v>
+      </c>
+      <c r="AF507" t="s"/>
+      <c r="AG507" t="s"/>
+      <c r="AH507" t="s">
+        <v>4950</v>
+      </c>
+      <c r="AI507" t="s">
         <v>48</v>
       </c>
     </row>
